--- a/pre_processing/target_encoder_city.xlsx
+++ b/pre_processing/target_encoder_city.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.346</v>
+        <v>-0.344</v>
       </c>
     </row>
     <row r="3">
@@ -463,33 +463,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.654</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.231</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0.297</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
         <v>0.322</v>
       </c>
     </row>

--- a/pre_processing/target_encoder_city.xlsx
+++ b/pre_processing/target_encoder_city.xlsx
@@ -450,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.344</v>
+        <v>-0.347</v>
       </c>
     </row>
     <row r="3">
@@ -458,23 +458,23 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.198</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.297</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>0.316</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>0.322</v>
+        <v>0.364</v>
       </c>
     </row>
   </sheetData>

--- a/pre_processing/target_encoder_city.xlsx
+++ b/pre_processing/target_encoder_city.xlsx
@@ -450,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.347</v>
+        <v>-0.326</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.207</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="4">
@@ -466,23 +466,23 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.281</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.292</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>0.364</v>
+        <v>0.293</v>
       </c>
     </row>
   </sheetData>
